--- a/crawling/data/yogiyo_한국외대_1.xlsx
+++ b/crawling/data/yogiyo_한국외대_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\One_for_One\crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63205C32-F920-4747-B62B-E95D1AB11387}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC78938-14D2-4B8D-B62F-88710A9FF773}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요기요_경희대_new" sheetId="1" r:id="rId1"/>
@@ -4746,7 +4746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="A382" sqref="A382:I445"/>
     </sheetView>
   </sheetViews>
@@ -7550,10 +7550,13 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -9040,11 +9043,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECBE08A-3DCA-4690-9A0A-A13AAC1CB531}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -10833,7 +10839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE5DAC7-7ADA-4E23-AEF2-0DEE11DC910C}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
@@ -12197,11 +12203,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82302179-49AB-4567-A9F9-3DDDF5FBEB45}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="26.08203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
